--- a/src/test/java/ru/fds/tavrzcms3/testdata/pledge_agreement_new.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/pledge_agreement_new.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <r>
       <t xml:space="preserve">num_pa: </t>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>заметка 3</t>
+  </si>
+  <si>
+    <t>1;2</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:XFD1048576"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,8 +562,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -576,6 +579,9 @@
       <c r="C3" s="2">
         <v>37683</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -601,6 +607,9 @@
       </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
       <c r="F4">
         <v>3</v>
